--- a/Design Log Template.xlsx
+++ b/Design Log Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usfedu-my.sharepoint.com/personal/cameronhansen_usf_edu/Documents/School/Game Design/Game/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usfedu-my.sharepoint.com/personal/cameronhansen_usf_edu/Documents/School/Game Design/Game Assets/clokenbrock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_26FF4B5212F5606202DDBFA3E5FC3B6D20DD2982" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08F0CC13-86AA-9D43-8D73-39696C615888}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_26FF4B5212F5606202DDBFA3E5FC3B6D20DD2982" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{856B4D2A-126E-2A44-A361-3B85A6E25781}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Play Notes</t>
   </si>
@@ -71,6 +71,25 @@
   </si>
   <si>
     <t>Need to add leveling system and multimedia immediately, work on second game interaction after. Also, some of the variables are calculated obtusely. I can make them better.</t>
+  </si>
+  <si>
+    <t>Added basic Game 2
+Cleaned up events into appropriate sheets so they can be called based on the game being played and global conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was able to separate events and create a new subgame without needing to recreate or duplicating events. Should allow for easier addition of future subgames and features
+But the event sheets are still messy and the games are still very simple. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can clean up the event sheets pretty easily. 
+More broadly, setting all games to a universal random seed would further simplify how each subgame interacts with the larger game. </t>
+  </si>
+  <si>
+    <t>&lt;--- The items in the proposed solutions column are immediate next steps. 
+After that, developing the actual games further and adding secondary mechanics, like music</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -201,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -221,14 +240,17 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -247,7 +269,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -474,7 +496,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -489,17 +511,17 @@
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -535,12 +557,12 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -560,8 +582,8 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+    <row r="3" spans="1:27" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
         <v>44485</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -576,12 +598,12 @@
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -601,8 +623,8 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
+    <row r="4" spans="1:27" ht="141" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>44489</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -640,13 +662,25 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+    <row r="5" spans="1:27" ht="214" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18">
+        <v>44496</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -29536,15 +29570,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002370EEA570C18842B6FB872796063116" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87de2a522a2090bbf8603ec07952cc0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6245a7e6-c5eb-4fdf-9140-01f138510bd2" xmlns:ns3="1f3527a7-930f-451f-9650-d796d7133b6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dedcbd8c2903b1e6bfc467290babbd0" ns2:_="" ns3:_="">
     <xsd:import namespace="6245a7e6-c5eb-4fdf-9140-01f138510bd2"/>
@@ -29721,6 +29746,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -29736,14 +29770,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAEFB3CE-3E06-4B6D-AA9F-E3EFAC5C83A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{818A8208-1C74-4B16-8D86-D46751EF7CB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29762,17 +29788,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAEFB3CE-3E06-4B6D-AA9F-E3EFAC5C83A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2576ED3A-ACB0-4AC7-9150-1D15320DDF0D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="1f3527a7-930f-451f-9650-d796d7133b6c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="6245a7e6-c5eb-4fdf-9140-01f138510bd2"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>

--- a/Design Log Template.xlsx
+++ b/Design Log Template.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usfedu-my.sharepoint.com/personal/cameronhansen_usf_edu/Documents/School/Game Design/Game Assets/clokenbrock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_26FF4B5212F5606202DDBFA3E5FC3B6D20DD2982" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{856B4D2A-126E-2A44-A361-3B85A6E25781}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_26FF4B5212F5606202DDBFA3E5FC3B6D20DD2982" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E0BDA2F-3923-0948-9E1C-908637DD4498}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Play Notes</t>
   </si>
@@ -90,6 +101,22 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>- Added additional hotspots
+- Added feedback sounds
+- Removed dev toggle
+- Change scoring system
+- Removed Game 1 (for now)</t>
+  </si>
+  <si>
+    <t>Something happened and I my control variables (specifically one I called sceneRandrom) stopped updating entirely after some trivial change.After a while of troubleshooting, I had to recreate Game 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variables seemed to start working again after completely closing and reloading Construct 3. So I.guess more frequent saves? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure out game theme and make additional games. There also needs to be a floor for click scores. </t>
   </si>
 </sst>
 </file>
@@ -220,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -246,6 +273,9 @@
     <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -269,7 +299,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -493,10 +526,10 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -511,17 +544,17 @@
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="10"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="11"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -557,12 +590,12 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -598,12 +631,12 @@
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -663,7 +696,7 @@
       <c r="AA4" s="6"/>
     </row>
     <row r="5" spans="1:27" ht="214" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18">
+      <c r="A5" s="9">
         <v>44496</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -703,12 +736,22 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+    <row r="6" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19">
+        <v>44504</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -29570,6 +29613,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="1f3527a7-930f-451f-9650-d796d7133b6c">
+      <UserInfo>
+        <DisplayName>Blue Barracudas GRP Members</DisplayName>
+        <AccountId>24</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002370EEA570C18842B6FB872796063116" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87de2a522a2090bbf8603ec07952cc0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6245a7e6-c5eb-4fdf-9140-01f138510bd2" xmlns:ns3="1f3527a7-930f-451f-9650-d796d7133b6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dedcbd8c2903b1e6bfc467290babbd0" ns2:_="" ns3:_="">
     <xsd:import namespace="6245a7e6-c5eb-4fdf-9140-01f138510bd2"/>
@@ -29746,30 +29812,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2576ED3A-ACB0-4AC7-9150-1D15320DDF0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1f3527a7-930f-451f-9650-d796d7133b6c"/>
+    <ds:schemaRef ds:uri="6245a7e6-c5eb-4fdf-9140-01f138510bd2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="1f3527a7-930f-451f-9650-d796d7133b6c">
-      <UserInfo>
-        <DisplayName>Blue Barracudas GRP Members</DisplayName>
-        <AccountId>24</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAEFB3CE-3E06-4B6D-AA9F-E3EFAC5C83A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{818A8208-1C74-4B16-8D86-D46751EF7CB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29786,29 +29854,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAEFB3CE-3E06-4B6D-AA9F-E3EFAC5C83A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2576ED3A-ACB0-4AC7-9150-1D15320DDF0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1f3527a7-930f-451f-9650-d796d7133b6c"/>
-    <ds:schemaRef ds:uri="6245a7e6-c5eb-4fdf-9140-01f138510bd2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Design Log Template.xlsx
+++ b/Design Log Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usfedu-my.sharepoint.com/personal/cameronhansen_usf_edu/Documents/School/Game Design/Game Assets/clokenbrock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usfedu-my.sharepoint.com/personal/cameronhansen_usf_edu/Documents/clokenbrock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_26FF4B5212F5606202DDBFA3E5FC3B6D20DD2982" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E0BDA2F-3923-0948-9E1C-908637DD4498}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="11_26FF4B5212F5606202DDBFA3E5FC3B6D20DD2982" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3231225-7134-2A48-AA31-0016853E0973}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Play Notes</t>
   </si>
@@ -117,6 +117,51 @@
   </si>
   <si>
     <t xml:space="preserve">Figure out game theme and make additional games. There also needs to be a floor for click scores. </t>
+  </si>
+  <si>
+    <t>This was mostly just getting things a little more polished after having to redo Game 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Addressed a number of bugs or miscalculations. </t>
+  </si>
+  <si>
+    <t>- Added minor functionality and aesthetic updates, including animations in game</t>
+  </si>
+  <si>
+    <t>- Add tutorial, fix scoring</t>
+  </si>
+  <si>
+    <t>I got most of the scoring systems in place. Score isn't entirely level agnostic, but it can be relatively easily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would need to create additional global variables for each level. </t>
+  </si>
+  <si>
+    <t>Create tutorial</t>
+  </si>
+  <si>
+    <t>- Added tutorial
+- Added score feedback at completion of game</t>
+  </si>
+  <si>
+    <t>The tutorial layout is present, but is not complete. Spent most of my time setting up the game end states (two failure states and one success state) and creating feedback for players.</t>
+  </si>
+  <si>
+    <t>Just need to finish tutorial</t>
+  </si>
+  <si>
+    <t>Finish tutorial</t>
+  </si>
+  <si>
+    <t>- Finished tutorial 
+- Addressed a few bugs
+- Changed secondary mechanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Mechanic Change: Unclicked appliances now reduce the eyes' HP while misclicks only contribute to points. Fits primary mechanic and story logic much better. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new game </t>
   </si>
 </sst>
 </file>
@@ -247,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -276,6 +321,12 @@
     <xf numFmtId="16" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -299,10 +350,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -525,11 +576,11 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -544,17 +595,17 @@
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -590,12 +641,12 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -631,12 +682,12 @@
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -737,10 +788,10 @@
       <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19">
+      <c r="A6" s="10">
         <v>44504</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -775,12 +826,20 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+    <row r="7" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>44507</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -804,12 +863,22 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+    <row r="8" spans="1:27" ht="52" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>44508</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -833,12 +902,22 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+    <row r="9" spans="1:27" ht="91" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>44509</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -862,12 +941,20 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+    <row r="10" spans="1:27" ht="116" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>44510</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -893,10 +980,10 @@
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -922,10 +1009,10 @@
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -951,10 +1038,10 @@
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -980,10 +1067,10 @@
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -1013,7 +1100,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1071,7 +1158,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1129,7 +1216,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1187,7 +1274,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1245,7 +1332,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -29613,29 +29700,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="1f3527a7-930f-451f-9650-d796d7133b6c">
-      <UserInfo>
-        <DisplayName>Blue Barracudas GRP Members</DisplayName>
-        <AccountId>24</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002370EEA570C18842B6FB872796063116" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87de2a522a2090bbf8603ec07952cc0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6245a7e6-c5eb-4fdf-9140-01f138510bd2" xmlns:ns3="1f3527a7-930f-451f-9650-d796d7133b6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dedcbd8c2903b1e6bfc467290babbd0" ns2:_="" ns3:_="">
     <xsd:import namespace="6245a7e6-c5eb-4fdf-9140-01f138510bd2"/>
@@ -29812,32 +29876,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2576ED3A-ACB0-4AC7-9150-1D15320DDF0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1f3527a7-930f-451f-9650-d796d7133b6c"/>
-    <ds:schemaRef ds:uri="6245a7e6-c5eb-4fdf-9140-01f138510bd2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="1f3527a7-930f-451f-9650-d796d7133b6c">
+      <UserInfo>
+        <DisplayName>Blue Barracudas GRP Members</DisplayName>
+        <AccountId>24</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAEFB3CE-3E06-4B6D-AA9F-E3EFAC5C83A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{818A8208-1C74-4B16-8D86-D46751EF7CB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29854,4 +29916,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2576ED3A-ACB0-4AC7-9150-1D15320DDF0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1f3527a7-930f-451f-9650-d796d7133b6c"/>
+    <ds:schemaRef ds:uri="6245a7e6-c5eb-4fdf-9140-01f138510bd2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAEFB3CE-3E06-4B6D-AA9F-E3EFAC5C83A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Design Log Template.xlsx
+++ b/Design Log Template.xlsx
@@ -577,10 +577,10 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
